--- a/Bubble Space - Gantt Chart.xlsx
+++ b/Bubble Space - Gantt Chart.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>System Name</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>4.1. User Management</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
   <si>
     <t>4.2. Team Management</t>
@@ -257,6 +254,9 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -267,9 +267,6 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -738,265 +735,301 @@
       <c r="A13" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="17">
         <v>45525.0</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="17">
         <v>45558.0</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
     </row>
     <row r="14">
       <c r="A14" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="17">
         <v>45525.0</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="17">
         <v>45558.0</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
     </row>
     <row r="15">
       <c r="A15" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="17">
         <v>45558.0</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
       <c r="I15" s="19"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
     </row>
     <row r="16">
       <c r="A16" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="15"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
-      <c r="E16" s="15"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="17"/>
+      <c r="G16" s="18"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
     </row>
     <row r="17">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
+      <c r="B17" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="20">
+        <v>45574.0</v>
+      </c>
+      <c r="D17" s="20">
+        <v>45577.0</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
     </row>
     <row r="18">
-      <c r="A18" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
+      <c r="B18" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="20">
+        <v>45574.0</v>
+      </c>
+      <c r="D18" s="20">
+        <v>45577.0</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
       <c r="H18" s="22"/>
       <c r="I18" s="21"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
     </row>
     <row r="19">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="20">
+        <v>45574.0</v>
+      </c>
+      <c r="D19" s="20">
+        <v>45577.0</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="15" t="s">
+      <c r="B20" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="20">
+        <v>45574.0</v>
+      </c>
+      <c r="D20" s="20">
+        <v>45577.0</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="15" t="s">
+      <c r="B21" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="20">
+        <v>45574.0</v>
+      </c>
+      <c r="D21" s="20">
+        <v>45577.0</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
+      <c r="B22" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="20">
+        <v>45574.0</v>
+      </c>
+      <c r="D22" s="20">
+        <v>45577.0</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
     </row>
     <row r="23">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
     </row>
     <row r="24">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
     </row>
     <row r="25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
     </row>
     <row r="26">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1010,7 +1043,7 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B17:B22">
       <formula1>"Rae Addison Duque,Al Jubail-Benz Engalla,Jeannie Margarett Verar,None"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E13:E15">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E13:E15 E17:E22">
       <formula1>"Todo,In-Progress,Done,On-hold"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Bubble Space - Gantt Chart.xlsx
+++ b/Bubble Space - Gantt Chart.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
   <si>
     <t>System Name</t>
   </si>
@@ -95,16 +95,20 @@
   </si>
   <si>
     <t>4.6. Note Creation</t>
+  </si>
+  <si>
+    <t>5. Django</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="165" formatCode="M/d/yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -123,6 +127,11 @@
       <name val="Calibri"/>
     </font>
     <font/>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -212,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -278,6 +287,14 @@
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -791,7 +808,9 @@
       <c r="C15" s="17">
         <v>45558.0</v>
       </c>
-      <c r="D15" s="18"/>
+      <c r="D15" s="17">
+        <v>45559.0</v>
+      </c>
       <c r="E15" s="16" t="s">
         <v>9</v>
       </c>
@@ -953,7 +972,7 @@
       <c r="B22" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="23">
         <v>45574.0</v>
       </c>
       <c r="D22" s="20">
@@ -972,7 +991,9 @@
       <c r="M22" s="18"/>
     </row>
     <row r="23">
-      <c r="A23" s="18"/>
+      <c r="A23" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
@@ -987,49 +1008,142 @@
       <c r="M23" s="18"/>
     </row>
     <row r="24">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
+      <c r="A24" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="17">
+        <v>45589.0</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
       <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
+      <c r="L24" s="24"/>
       <c r="M24" s="18"/>
     </row>
     <row r="25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
+      <c r="A25" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="17">
+        <v>45589.0</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
+      <c r="L25" s="24"/>
       <c r="M25" s="18"/>
     </row>
     <row r="26">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
+      <c r="A26" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="17">
+        <v>45589.0</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
       <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
+      <c r="L26" s="24"/>
       <c r="M26" s="18"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="17">
+        <v>45589.0</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="25"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="17">
+        <v>45589.0</v>
+      </c>
+      <c r="D28" s="17"/>
+      <c r="E28" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="25"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="17">
+        <v>45589.0</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1040,10 +1154,10 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B13:B15">
       <formula1>"Rae Addison Duque,Al Jubail-Benz Engalla,Jeannie Margarett Verar,None"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B17:B22">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B17:B22 B24:B29">
       <formula1>"Rae Addison Duque,Al Jubail-Benz Engalla,Jeannie Margarett Verar,None"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E13:E15 E17:E22">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E13:E15 E17:E22 E24:E29">
       <formula1>"Todo,In-Progress,Done,On-hold"</formula1>
     </dataValidation>
   </dataValidations>
